--- a/Ordering System/Ekbana.xlsx
+++ b/Ordering System/Ekbana.xlsx
@@ -5,17 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$AD$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$B$2:$S$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet4!$A$2:$H$59</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="372">
   <si>
     <t>Dear Jiten Dai,</t>
   </si>
@@ -1129,12 +1136,24 @@
   </si>
   <si>
     <t>BM8996</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1469,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1948,10 +1967,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:AC100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2267,7 +2287,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2445,7 +2465,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2537,7 +2557,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2979,7 +2999,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +3275,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3367,7 +3387,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3459,7 +3479,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3782,7 +3802,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3874,7 +3894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -3966,7 +3986,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -4304,7 +4324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -4642,7 +4662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -4734,7 +4754,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -5167,7 +5187,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -5348,7 +5368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -5440,7 +5460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -5561,7 +5581,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -5581,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -5809,7 +5829,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -6025,7 +6045,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -6105,7 +6125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -6461,7 +6481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>339</v>
       </c>
@@ -6478,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -6567,7 +6587,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -6712,7 +6732,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -6845,7 +6865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>299</v>
       </c>
@@ -6927,7 +6947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -7167,7 +7187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -7211,7 +7231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -7264,7 +7284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -7367,7 +7387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>338</v>
       </c>
@@ -7381,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -7437,7 +7457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -7478,7 +7498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -7558,7 +7578,7 @@
         <v>128.12217391304347</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -7644,7 +7664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -7819,7 +7839,7 @@
         <v>52.607750000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -7875,7 +7895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -7934,7 +7954,7 @@
         <v>53.59921739130435</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -7954,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -7977,7 +7997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -8068,7 +8088,7 @@
         <v>26.105416666666667</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -8106,7 +8126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -8218,7 +8238,7 @@
         <v>41.791666666666664</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -8351,7 +8371,7 @@
         <v>56.140958333333337</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -8386,7 +8406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -8424,7 +8444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -8462,7 +8482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -8488,7 +8508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -8520,7 +8540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -8540,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -8664,7 +8684,7 @@
         <v>91.18854166666668</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -8705,7 +8725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -8964,7 +8984,7 @@
         <v>8.2526666666666664</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>281</v>
       </c>
@@ -8978,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -9185,7 +9205,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -9282,7 +9302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -9311,7 +9331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -9343,7 +9363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -9363,7 +9383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -9389,7 +9409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -9412,7 +9432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -9471,7 +9491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -9494,7 +9514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -9511,7 +9531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -9593,7 +9613,7 @@
         <v>37.008333333333333</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -9690,7 +9710,7 @@
         <v>47.850208333333335</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -9707,7 +9727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -9724,7 +9744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -9741,7 +9761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -9758,7 +9778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -9792,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -9809,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -9826,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>297</v>
       </c>
@@ -9986,7 +10006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -10003,7 +10023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -10020,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -10037,7 +10057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -10054,7 +10074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -10071,7 +10091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -10091,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -10132,9 +10152,9028 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AD141">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Fresh veg"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="F1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A3:Z59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>45</v>
+      </c>
+      <c r="J3">
+        <v>7.5</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>24</v>
+      </c>
+      <c r="V3">
+        <v>24</v>
+      </c>
+      <c r="W3">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>6</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>9</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2.5</v>
+      </c>
+      <c r="R5">
+        <v>1.5</v>
+      </c>
+      <c r="S5">
+        <v>1.5</v>
+      </c>
+      <c r="T5">
+        <v>1.5</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>12.5</v>
+      </c>
+      <c r="L6">
+        <v>7.5</v>
+      </c>
+      <c r="M6">
+        <v>7.5</v>
+      </c>
+      <c r="N6">
+        <v>7.5</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>7.5</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>7.5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>7.5</v>
+      </c>
+      <c r="V6">
+        <v>12.5</v>
+      </c>
+      <c r="W6">
+        <v>12.5</v>
+      </c>
+      <c r="X6">
+        <v>7.5</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>12.5</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>12.5</v>
+      </c>
+      <c r="L7">
+        <v>7.5</v>
+      </c>
+      <c r="M7">
+        <v>12.5</v>
+      </c>
+      <c r="N7">
+        <v>7.5</v>
+      </c>
+      <c r="O7">
+        <v>12.5</v>
+      </c>
+      <c r="P7">
+        <v>12.5</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>7.5</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>15</v>
+      </c>
+      <c r="W7">
+        <v>12.5</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>7.5</v>
+      </c>
+      <c r="Z7">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>2.5</v>
+      </c>
+      <c r="K8">
+        <v>7.5</v>
+      </c>
+      <c r="L8">
+        <v>7.5</v>
+      </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
+      <c r="N8">
+        <v>2.5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>2.5</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>2.5</v>
+      </c>
+      <c r="S8">
+        <v>2.5</v>
+      </c>
+      <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8">
+        <v>2.5</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
+        <v>2.5</v>
+      </c>
+      <c r="X8">
+        <v>2.5</v>
+      </c>
+      <c r="Y8">
+        <v>2.5</v>
+      </c>
+      <c r="Z8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>12.5</v>
+      </c>
+      <c r="J9">
+        <v>7.5</v>
+      </c>
+      <c r="K9">
+        <v>7.5</v>
+      </c>
+      <c r="L9">
+        <v>7.5</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>7.5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>7.5</v>
+      </c>
+      <c r="R9">
+        <v>2.5</v>
+      </c>
+      <c r="S9">
+        <v>7.5</v>
+      </c>
+      <c r="T9">
+        <v>2.5</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>15</v>
+      </c>
+      <c r="W9">
+        <v>17.5</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>2.5</v>
+      </c>
+      <c r="Z9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>7.5</v>
+      </c>
+      <c r="K10">
+        <v>12.5</v>
+      </c>
+      <c r="L10">
+        <v>7.5</v>
+      </c>
+      <c r="M10">
+        <v>12.5</v>
+      </c>
+      <c r="N10">
+        <v>7.5</v>
+      </c>
+      <c r="O10">
+        <v>12.5</v>
+      </c>
+      <c r="P10">
+        <v>7.5</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>7.5</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>12.5</v>
+      </c>
+      <c r="W10">
+        <v>12.5</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>2.5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>2.5</v>
+      </c>
+      <c r="Q11">
+        <v>2.5</v>
+      </c>
+      <c r="R11">
+        <v>2.5</v>
+      </c>
+      <c r="S11">
+        <v>2.5</v>
+      </c>
+      <c r="T11">
+        <v>2.5</v>
+      </c>
+      <c r="U11">
+        <v>2.5</v>
+      </c>
+      <c r="V11">
+        <v>7.5</v>
+      </c>
+      <c r="W11">
+        <v>7.5</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>2.5</v>
+      </c>
+      <c r="Z11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>2.5</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
+        <v>2.5</v>
+      </c>
+      <c r="V13">
+        <v>7.5</v>
+      </c>
+      <c r="W13">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>2.5</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>2.5</v>
+      </c>
+      <c r="M14">
+        <v>2.5</v>
+      </c>
+      <c r="N14">
+        <v>2.5</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>2.5</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>2.5</v>
+      </c>
+      <c r="S14">
+        <v>2.5</v>
+      </c>
+      <c r="T14">
+        <v>2.5</v>
+      </c>
+      <c r="U14">
+        <v>2.5</v>
+      </c>
+      <c r="V14">
+        <v>7.5</v>
+      </c>
+      <c r="W14">
+        <v>7.5</v>
+      </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>2.5</v>
+      </c>
+      <c r="Z14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>2.5</v>
+      </c>
+      <c r="J15">
+        <v>2.5</v>
+      </c>
+      <c r="K15">
+        <v>2.5</v>
+      </c>
+      <c r="L15">
+        <v>2.5</v>
+      </c>
+      <c r="M15">
+        <v>2.5</v>
+      </c>
+      <c r="N15">
+        <v>2.5</v>
+      </c>
+      <c r="O15">
+        <v>2.5</v>
+      </c>
+      <c r="P15">
+        <v>2.5</v>
+      </c>
+      <c r="Q15">
+        <v>2.5</v>
+      </c>
+      <c r="R15">
+        <v>2.5</v>
+      </c>
+      <c r="S15">
+        <v>2.5</v>
+      </c>
+      <c r="T15">
+        <v>2.5</v>
+      </c>
+      <c r="U15">
+        <v>2.5</v>
+      </c>
+      <c r="V15">
+        <v>2.5</v>
+      </c>
+      <c r="W15">
+        <v>2.5</v>
+      </c>
+      <c r="X15">
+        <v>2.5</v>
+      </c>
+      <c r="Y15">
+        <v>2.5</v>
+      </c>
+      <c r="Z15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>1.5</v>
+      </c>
+      <c r="O16">
+        <v>2.5</v>
+      </c>
+      <c r="P16">
+        <v>1.5</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>1.5</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>1.5</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>1.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.5</v>
+      </c>
+      <c r="Z16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1.5</v>
+      </c>
+      <c r="T18">
+        <v>1.5</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>2.5</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>2.5</v>
+      </c>
+      <c r="L19">
+        <v>2.5</v>
+      </c>
+      <c r="M19">
+        <v>2.5</v>
+      </c>
+      <c r="N19">
+        <v>2.5</v>
+      </c>
+      <c r="O19">
+        <v>2.5</v>
+      </c>
+      <c r="P19">
+        <v>2.5</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>2.5</v>
+      </c>
+      <c r="S19">
+        <v>2.5</v>
+      </c>
+      <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>2.5</v>
+      </c>
+      <c r="V19">
+        <v>7.5</v>
+      </c>
+      <c r="W19">
+        <v>7.5</v>
+      </c>
+      <c r="X19">
+        <v>5</v>
+      </c>
+      <c r="Y19">
+        <v>2.5</v>
+      </c>
+      <c r="Z19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2.5</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>1.5</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>1.5</v>
+      </c>
+      <c r="Q20">
+        <v>1.5</v>
+      </c>
+      <c r="R20">
+        <v>1.5</v>
+      </c>
+      <c r="S20">
+        <v>1.5</v>
+      </c>
+      <c r="T20">
+        <v>1.5</v>
+      </c>
+      <c r="U20">
+        <v>1.5</v>
+      </c>
+      <c r="V20">
+        <v>4</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>1.5</v>
+      </c>
+      <c r="Y20">
+        <v>1.5</v>
+      </c>
+      <c r="Z20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>2.5</v>
+      </c>
+      <c r="J22">
+        <v>2.5</v>
+      </c>
+      <c r="K22">
+        <v>2.5</v>
+      </c>
+      <c r="L22">
+        <v>2.5</v>
+      </c>
+      <c r="M22">
+        <v>2.5</v>
+      </c>
+      <c r="N22">
+        <v>2.5</v>
+      </c>
+      <c r="O22">
+        <v>2.5</v>
+      </c>
+      <c r="P22">
+        <v>2.5</v>
+      </c>
+      <c r="Q22">
+        <v>2.5</v>
+      </c>
+      <c r="R22">
+        <v>2.5</v>
+      </c>
+      <c r="S22">
+        <v>2.5</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>2.5</v>
+      </c>
+      <c r="V22">
+        <v>7.5</v>
+      </c>
+      <c r="W22">
+        <v>7.5</v>
+      </c>
+      <c r="X22">
+        <v>2.5</v>
+      </c>
+      <c r="Y22">
+        <v>2.5</v>
+      </c>
+      <c r="Z22">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>2.5</v>
+      </c>
+      <c r="J23">
+        <v>2.5</v>
+      </c>
+      <c r="K23">
+        <v>2.5</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>2.5</v>
+      </c>
+      <c r="N23">
+        <v>2.5</v>
+      </c>
+      <c r="O23">
+        <v>2.5</v>
+      </c>
+      <c r="P23">
+        <v>2.5</v>
+      </c>
+      <c r="Q23">
+        <v>2.5</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
+        <v>2.5</v>
+      </c>
+      <c r="V23">
+        <v>7.5</v>
+      </c>
+      <c r="W23">
+        <v>5</v>
+      </c>
+      <c r="X23">
+        <v>2.5</v>
+      </c>
+      <c r="Y23">
+        <v>2.5</v>
+      </c>
+      <c r="Z23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>6</v>
+      </c>
+      <c r="W24">
+        <v>8</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <v>2</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>2.5</v>
+      </c>
+      <c r="J28">
+        <v>2.5</v>
+      </c>
+      <c r="K28">
+        <v>2.5</v>
+      </c>
+      <c r="L28">
+        <v>2.5</v>
+      </c>
+      <c r="M28">
+        <v>2.5</v>
+      </c>
+      <c r="N28">
+        <v>2.5</v>
+      </c>
+      <c r="O28">
+        <v>2.5</v>
+      </c>
+      <c r="P28">
+        <v>2.5</v>
+      </c>
+      <c r="Q28">
+        <v>2.5</v>
+      </c>
+      <c r="R28">
+        <v>2.5</v>
+      </c>
+      <c r="S28">
+        <v>2.5</v>
+      </c>
+      <c r="T28">
+        <v>2.5</v>
+      </c>
+      <c r="U28">
+        <v>2.5</v>
+      </c>
+      <c r="V28">
+        <v>5</v>
+      </c>
+      <c r="W28">
+        <v>5</v>
+      </c>
+      <c r="X28">
+        <v>2.5</v>
+      </c>
+      <c r="Y28">
+        <v>2.5</v>
+      </c>
+      <c r="Z28">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>1.5</v>
+      </c>
+      <c r="J30">
+        <v>1.5</v>
+      </c>
+      <c r="K30">
+        <v>1.5</v>
+      </c>
+      <c r="L30">
+        <v>1.5</v>
+      </c>
+      <c r="M30">
+        <v>1.5</v>
+      </c>
+      <c r="N30">
+        <v>1.5</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>1.5</v>
+      </c>
+      <c r="Q30">
+        <v>1.5</v>
+      </c>
+      <c r="R30">
+        <v>1.5</v>
+      </c>
+      <c r="S30">
+        <v>1.5</v>
+      </c>
+      <c r="T30">
+        <v>1.5</v>
+      </c>
+      <c r="U30">
+        <v>1.5</v>
+      </c>
+      <c r="V30">
+        <v>4.5</v>
+      </c>
+      <c r="W30">
+        <v>6</v>
+      </c>
+      <c r="X30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>1.5</v>
+      </c>
+      <c r="Z30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>1.5</v>
+      </c>
+      <c r="J31">
+        <v>1.5</v>
+      </c>
+      <c r="K31">
+        <v>1.5</v>
+      </c>
+      <c r="L31">
+        <v>1.5</v>
+      </c>
+      <c r="M31">
+        <v>1.5</v>
+      </c>
+      <c r="N31">
+        <v>1.5</v>
+      </c>
+      <c r="O31">
+        <v>1.5</v>
+      </c>
+      <c r="P31">
+        <v>1.5</v>
+      </c>
+      <c r="Q31">
+        <v>1.5</v>
+      </c>
+      <c r="S31">
+        <v>1.5</v>
+      </c>
+      <c r="T31">
+        <v>1.5</v>
+      </c>
+      <c r="U31">
+        <v>1.5</v>
+      </c>
+      <c r="V31">
+        <v>1.5</v>
+      </c>
+      <c r="W31">
+        <v>1.5</v>
+      </c>
+      <c r="X31">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>1.5</v>
+      </c>
+      <c r="J32">
+        <v>1.5</v>
+      </c>
+      <c r="K32">
+        <v>1.5</v>
+      </c>
+      <c r="L32">
+        <v>1.5</v>
+      </c>
+      <c r="M32">
+        <v>1.5</v>
+      </c>
+      <c r="N32">
+        <v>1.5</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>1.5</v>
+      </c>
+      <c r="Q32">
+        <v>1.5</v>
+      </c>
+      <c r="R32">
+        <v>1.5</v>
+      </c>
+      <c r="S32">
+        <v>1.5</v>
+      </c>
+      <c r="T32">
+        <v>1.5</v>
+      </c>
+      <c r="U32">
+        <v>1.5</v>
+      </c>
+      <c r="V32">
+        <v>4.5</v>
+      </c>
+      <c r="W32">
+        <v>1.5</v>
+      </c>
+      <c r="X32">
+        <v>1.5</v>
+      </c>
+      <c r="Y32">
+        <v>1.5</v>
+      </c>
+      <c r="Z32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>1.5</v>
+      </c>
+      <c r="J33">
+        <v>1.5</v>
+      </c>
+      <c r="K33">
+        <v>1.5</v>
+      </c>
+      <c r="L33">
+        <v>1.5</v>
+      </c>
+      <c r="M33">
+        <v>1.5</v>
+      </c>
+      <c r="N33">
+        <v>1.5</v>
+      </c>
+      <c r="O33">
+        <v>1.5</v>
+      </c>
+      <c r="P33">
+        <v>1.5</v>
+      </c>
+      <c r="Q33">
+        <v>1.5</v>
+      </c>
+      <c r="R33">
+        <v>1.5</v>
+      </c>
+      <c r="S33">
+        <v>1.5</v>
+      </c>
+      <c r="T33">
+        <v>1.5</v>
+      </c>
+      <c r="U33">
+        <v>1.5</v>
+      </c>
+      <c r="V33">
+        <v>1.5</v>
+      </c>
+      <c r="W33">
+        <v>1.5</v>
+      </c>
+      <c r="X33">
+        <v>1.5</v>
+      </c>
+      <c r="Y33">
+        <v>1.5</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1.5</v>
+      </c>
+      <c r="R34">
+        <v>1.5</v>
+      </c>
+      <c r="S34">
+        <v>1.5</v>
+      </c>
+      <c r="T34">
+        <v>1.5</v>
+      </c>
+      <c r="U34">
+        <v>1.5</v>
+      </c>
+      <c r="V34">
+        <v>1.5</v>
+      </c>
+      <c r="W34">
+        <v>1.5</v>
+      </c>
+      <c r="X34">
+        <v>1.5</v>
+      </c>
+      <c r="Y34">
+        <v>1.5</v>
+      </c>
+      <c r="Z34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>2</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>1.5</v>
+      </c>
+      <c r="J44">
+        <v>1.5</v>
+      </c>
+      <c r="K44">
+        <v>1.5</v>
+      </c>
+      <c r="L44">
+        <v>1.5</v>
+      </c>
+      <c r="M44">
+        <v>1.5</v>
+      </c>
+      <c r="N44">
+        <v>1.5</v>
+      </c>
+      <c r="O44">
+        <v>1.5</v>
+      </c>
+      <c r="P44">
+        <v>1.5</v>
+      </c>
+      <c r="Q44">
+        <v>1.5</v>
+      </c>
+      <c r="R44">
+        <v>1.5</v>
+      </c>
+      <c r="S44">
+        <v>1.5</v>
+      </c>
+      <c r="T44">
+        <v>1.5</v>
+      </c>
+      <c r="U44">
+        <v>1.5</v>
+      </c>
+      <c r="V44">
+        <v>1.5</v>
+      </c>
+      <c r="W44">
+        <v>1.5</v>
+      </c>
+      <c r="X44">
+        <v>1.5</v>
+      </c>
+      <c r="Y44">
+        <v>1.5</v>
+      </c>
+      <c r="Z44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AL46"/>
+  <sheetViews>
+    <sheetView topLeftCell="S33" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:AL46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>48</v>
+      </c>
+      <c r="O3">
+        <v>48</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>12</v>
+      </c>
+      <c r="R3">
+        <v>12</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <f>IF(B3&gt;=0,B3/2,"N/A")</f>
+        <v>45</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:AL3" si="0">IF(C3&gt;=0,C3/2,"N/A")</f>
+        <v>7.5</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>18</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4" t="s">
+        <v>370</v>
+      </c>
+      <c r="S4" t="s">
+        <v>370</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U45" si="1">IF(B4&gt;=0,B4/2,"N/A")</f>
+        <v>30</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V46" si="2">IF(C4&gt;=0,C4/2,"N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W46" si="3">IF(D4&gt;=0,D4/2,"N/A")</f>
+        <v>6</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X46" si="4">IF(E4&gt;=0,E4/2,"N/A")</f>
+        <v>15</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y46" si="5">IF(F4&gt;=0,F4/2,"N/A")</f>
+        <v>9</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z46" si="6">IF(G4&gt;=0,G4/2,"N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA46" si="7">IF(H4&gt;=0,H4/2,"N/A")</f>
+        <v>9</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB46" si="8">IF(I4&gt;=0,I4/2,"N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC46" si="9">IF(J4&gt;=0,J4/2,"N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD46" si="10">IF(K4&gt;=0,K4/2,"N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE46" si="11">IF(L4&gt;=0,L4/2,"N/A")</f>
+        <v>6</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF46" si="12">IF(M4&gt;=0,M4/2,"N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4:AG46" si="13">IF(N4&gt;=0,N4/2,"N/A")</f>
+        <v>6</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH46" si="14">IF(O4&gt;=0,O4/2,"N/A")</f>
+        <v>9</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" ref="AI4:AI46" si="15">IF(P4&gt;=0,P4/2,"N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" ref="AJ4:AJ46" si="16">IF(Q4&gt;=0,Q4/2,"N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="AK4" t="e">
+        <f t="shared" ref="AK4:AK46" si="17">IF(R4&gt;=0,R4/2,"N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL4" t="e">
+        <f t="shared" ref="AL4:AL46" si="18">IF(S4&gt;=0,S4/2,"N/A")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H5" t="s">
+        <v>370</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>370</v>
+      </c>
+      <c r="R5" t="s">
+        <v>370</v>
+      </c>
+      <c r="S5" t="s">
+        <v>370</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Z5" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA5" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="14"/>
+        <v>7.5</v>
+      </c>
+      <c r="AI5" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ5" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK5" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL5" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>15</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>25</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="13"/>
+        <v>7.5</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="14"/>
+        <v>12.5</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="16"/>
+        <v>7.5</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>25</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>20</v>
+      </c>
+      <c r="R7">
+        <v>15</v>
+      </c>
+      <c r="S7">
+        <v>15</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="7"/>
+        <v>12.5</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="8"/>
+        <v>12.5</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="12"/>
+        <v>7.5</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="17"/>
+        <v>7.5</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="18"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="15"/>
+        <v>2.5</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <v>35</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="15"/>
+        <v>17.5</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>25</v>
+      </c>
+      <c r="P10">
+        <v>25</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="7"/>
+        <v>12.5</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="14"/>
+        <v>12.5</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>15</v>
+      </c>
+      <c r="P11">
+        <v>15</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="14"/>
+        <v>7.5</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="15"/>
+        <v>7.5</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J12" t="s">
+        <v>370</v>
+      </c>
+      <c r="K12" t="s">
+        <v>370</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>370</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>370</v>
+      </c>
+      <c r="R12" t="s">
+        <v>370</v>
+      </c>
+      <c r="S12" t="s">
+        <v>370</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V12" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W12" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z12" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB12" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC12" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD12" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AG12" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AI12" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ12" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK12" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL12" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>15</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="14"/>
+        <v>7.5</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+      <c r="P14">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="14"/>
+        <v>7.5</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="15"/>
+        <v>7.5</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="14"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="15"/>
+        <v>2.5</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>370</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>370</v>
+      </c>
+      <c r="K17" t="s">
+        <v>370</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>370</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>370</v>
+      </c>
+      <c r="R17" t="s">
+        <v>370</v>
+      </c>
+      <c r="S17" t="s">
+        <v>370</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z17" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AC17" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD17" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AG17" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AI17" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ17" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK17" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL17" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>370</v>
+      </c>
+      <c r="K18" t="s">
+        <v>370</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>370</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>370</v>
+      </c>
+      <c r="R18" t="s">
+        <v>370</v>
+      </c>
+      <c r="S18" t="s">
+        <v>370</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC18" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD18" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG18" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AI18" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ18" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK18" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL18" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>15</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="14"/>
+        <v>7.5</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="15"/>
+        <v>7.5</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>8</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>370</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>370</v>
+      </c>
+      <c r="R21" t="s">
+        <v>370</v>
+      </c>
+      <c r="S21" t="s">
+        <v>370</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V21" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA21" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AI21" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ21" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK21" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL21" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>15</v>
+      </c>
+      <c r="P22">
+        <v>15</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="14"/>
+        <v>7.5</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="15"/>
+        <v>7.5</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>370</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>15</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="AD23" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="14"/>
+        <v>7.5</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>12</v>
+      </c>
+      <c r="P24">
+        <v>16</v>
+      </c>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25">
+        <v>8</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>370</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>370</v>
+      </c>
+      <c r="K26" t="s">
+        <v>370</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26" t="s">
+        <v>370</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="P26" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>370</v>
+      </c>
+      <c r="R26" t="s">
+        <v>370</v>
+      </c>
+      <c r="S26" t="s">
+        <v>370</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z26" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AC26" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD26" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AF26" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AI26" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ26" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK26" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL26" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>370</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>370</v>
+      </c>
+      <c r="H27" t="s">
+        <v>370</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>370</v>
+      </c>
+      <c r="K27" t="s">
+        <v>370</v>
+      </c>
+      <c r="L27" t="s">
+        <v>370</v>
+      </c>
+      <c r="M27" t="s">
+        <v>370</v>
+      </c>
+      <c r="N27" t="s">
+        <v>370</v>
+      </c>
+      <c r="O27" t="s">
+        <v>370</v>
+      </c>
+      <c r="P27" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>370</v>
+      </c>
+      <c r="R27" t="s">
+        <v>370</v>
+      </c>
+      <c r="S27" t="s">
+        <v>370</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V27" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z27" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA27" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AC27" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD27" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE27" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF27" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG27" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH27" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI27" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ27" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK27" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL27" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="10"/>
+        <v>2.5</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="13"/>
+        <v>2.5</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>370</v>
+      </c>
+      <c r="D29" t="s">
+        <v>370</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>370</v>
+      </c>
+      <c r="H29" t="s">
+        <v>370</v>
+      </c>
+      <c r="I29" t="s">
+        <v>370</v>
+      </c>
+      <c r="J29" t="s">
+        <v>370</v>
+      </c>
+      <c r="K29" t="s">
+        <v>370</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29" t="s">
+        <v>370</v>
+      </c>
+      <c r="N29" t="s">
+        <v>370</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+      <c r="P29" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>370</v>
+      </c>
+      <c r="R29" t="s">
+        <v>370</v>
+      </c>
+      <c r="S29" t="s">
+        <v>370</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V29" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W29" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z29" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA29" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB29" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC29" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD29" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AF29" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG29" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AI29" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ29" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK29" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL29" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+      <c r="P30">
+        <v>12</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="14"/>
+        <v>4.5</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>370</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s">
+        <v>370</v>
+      </c>
+      <c r="S31" t="s">
+        <v>370</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD31" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK31" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL31" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>9</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="14"/>
+        <v>4.5</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>370</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="S35" t="s">
+        <v>370</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AF35" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AL35" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>370</v>
+      </c>
+      <c r="I36" t="s">
+        <v>370</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>370</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>370</v>
+      </c>
+      <c r="R36" t="s">
+        <v>370</v>
+      </c>
+      <c r="S36" t="s">
+        <v>370</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V36" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA36" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB36" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AF36" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ36" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK36" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL36" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37" t="s">
+        <v>370</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="S37" t="s">
+        <v>370</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AD37" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AL37" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>370</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>370</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38" t="s">
+        <v>370</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AD38" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AG38" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AL38" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>370</v>
+      </c>
+      <c r="I39" t="s">
+        <v>370</v>
+      </c>
+      <c r="K39" t="s">
+        <v>370</v>
+      </c>
+      <c r="L39" t="s">
+        <v>370</v>
+      </c>
+      <c r="M39" t="s">
+        <v>370</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>370</v>
+      </c>
+      <c r="R39" t="s">
+        <v>370</v>
+      </c>
+      <c r="S39" t="s">
+        <v>370</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA39" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB39" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD39" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE39" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF39" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AI39" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ39" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK39" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL39" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40" t="s">
+        <v>370</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40" t="s">
+        <v>370</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AD40" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AL40" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>370</v>
+      </c>
+      <c r="L41" t="s">
+        <v>370</v>
+      </c>
+      <c r="M41" t="s">
+        <v>370</v>
+      </c>
+      <c r="N41" t="s">
+        <v>370</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>370</v>
+      </c>
+      <c r="R41" t="s">
+        <v>371</v>
+      </c>
+      <c r="S41" t="s">
+        <v>370</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y41" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC41" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD41" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE41" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF41" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG41" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ41" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK41" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL41" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>370</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>370</v>
+      </c>
+      <c r="J42" t="s">
+        <v>370</v>
+      </c>
+      <c r="K42" t="s">
+        <v>370</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>370</v>
+      </c>
+      <c r="N42" t="s">
+        <v>370</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>370</v>
+      </c>
+      <c r="R42" t="s">
+        <v>370</v>
+      </c>
+      <c r="S42" t="s">
+        <v>370</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V42" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB42" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC42" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD42" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AF42" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG42" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AI42" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ42" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK42" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL42" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>370</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>370</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43" t="s">
+        <v>370</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AD43" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AF43" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AL43" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ45">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46" t="s">
+        <v>370</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+      <c r="R46" t="s">
+        <v>370</v>
+      </c>
+      <c r="S46" t="s">
+        <v>370</v>
+      </c>
+      <c r="U46">
+        <f>IF(B46&gt;=0,B46/2,"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AD46" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AK46" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AL46" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:S46"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ordering System/Ekbana.xlsx
+++ b/Ordering System/Ekbana.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratik\Desktop\Bigmart-Replenishment-System\Ordering System\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1163,12 +1163,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1198,12 +1204,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1488,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="D18:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,46 +1980,47 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AD141"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:AC100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2066,7 +2077,7 @@
       <c r="R2" t="s">
         <v>65</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
         <v>66</v>
       </c>
       <c r="T2" t="s">
@@ -2103,7 +2114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2158,7 +2169,7 @@
       <c r="R3">
         <v>48</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <v>48</v>
       </c>
       <c r="T3">
@@ -2195,7 +2206,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2287,7 +2298,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2342,7 +2353,7 @@
       <c r="R5">
         <v>24</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="4">
         <v>24</v>
       </c>
       <c r="T5">
@@ -2379,7 +2390,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2465,7 +2476,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2520,7 +2531,7 @@
       <c r="R7">
         <v>25</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <v>15</v>
       </c>
       <c r="T7">
@@ -2557,7 +2568,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2612,7 +2623,7 @@
       <c r="R8">
         <v>30</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>20</v>
       </c>
       <c r="T8">
@@ -2649,7 +2660,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2723,7 +2734,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2815,7 +2826,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2907,7 +2918,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2999,7 +3010,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3054,7 +3065,7 @@
       <c r="R13">
         <v>4</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="4">
         <v>3</v>
       </c>
       <c r="T13">
@@ -3091,7 +3102,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3183,7 +3194,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3275,7 +3286,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3295,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -3387,7 +3398,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3453,7 @@
       <c r="R18">
         <v>3</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="4">
         <v>3</v>
       </c>
       <c r="T18">
@@ -3479,7 +3490,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3534,7 +3545,7 @@
       <c r="R19">
         <v>3</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="4">
         <v>2</v>
       </c>
       <c r="T19">
@@ -3571,7 +3582,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -3605,6 +3616,7 @@
       <c r="R20">
         <v>4</v>
       </c>
+      <c r="S20"/>
       <c r="V20">
         <v>5</v>
       </c>
@@ -3618,7 +3630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3710,7 +3722,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3802,7 +3814,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3857,7 +3869,7 @@
       <c r="R23">
         <v>3</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="4">
         <v>3</v>
       </c>
       <c r="T23">
@@ -3894,7 +3906,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -3949,7 +3961,7 @@
       <c r="R24">
         <v>4</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="4">
         <v>4</v>
       </c>
       <c r="T24">
@@ -3986,7 +3998,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -4041,7 +4053,7 @@
       <c r="R25">
         <v>6</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="4">
         <v>6</v>
       </c>
       <c r="T25">
@@ -4078,7 +4090,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -4170,7 +4182,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -4262,7 +4274,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -4324,7 +4336,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -4379,7 +4391,7 @@
       <c r="R29">
         <v>4</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="4">
         <v>4</v>
       </c>
       <c r="T29">
@@ -4416,7 +4428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -4481,7 +4493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -4570,7 +4582,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -4662,7 +4674,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -4717,7 +4729,7 @@
       <c r="R33">
         <v>6</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="4">
         <v>6</v>
       </c>
       <c r="T33">
@@ -4754,7 +4766,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4809,7 +4821,7 @@
       <c r="R34">
         <v>3</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="4">
         <v>3</v>
       </c>
       <c r="T34">
@@ -4846,7 +4858,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -4914,7 +4926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -5006,7 +5018,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -5095,7 +5107,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -5187,7 +5199,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -5242,7 +5254,7 @@
       <c r="R39">
         <v>4</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="4">
         <v>4</v>
       </c>
       <c r="T39">
@@ -5276,7 +5288,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -5368,7 +5380,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -5423,7 +5435,7 @@
       <c r="R41">
         <v>2</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="4">
         <v>2</v>
       </c>
       <c r="T41">
@@ -5460,7 +5472,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -5515,14 +5527,14 @@
       <c r="R42">
         <v>5</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="4">
         <v>5</v>
       </c>
       <c r="AD42">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -5581,7 +5593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -5601,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -5656,7 +5668,7 @@
       <c r="R45">
         <v>4</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="4">
         <v>3</v>
       </c>
       <c r="T45">
@@ -5693,7 +5705,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -5737,7 +5749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -5829,7 +5841,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -5884,7 +5896,7 @@
       <c r="R48">
         <v>3</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="4">
         <v>3</v>
       </c>
       <c r="T48">
@@ -5912,7 +5924,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -5946,6 +5958,7 @@
       <c r="P49">
         <v>4</v>
       </c>
+      <c r="S49"/>
       <c r="V49">
         <v>4</v>
       </c>
@@ -5956,7 +5969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -6045,7 +6058,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -6097,7 +6110,7 @@
       <c r="R51">
         <v>2</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="4">
         <v>2</v>
       </c>
       <c r="T51">
@@ -6125,7 +6138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -6180,7 +6193,7 @@
       <c r="R52">
         <v>6</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="4">
         <v>6</v>
       </c>
       <c r="T52">
@@ -6217,7 +6230,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -6300,7 +6313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -6392,7 +6405,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -6494,11 +6507,12 @@
       <c r="E56">
         <v>0</v>
       </c>
+      <c r="S56"/>
       <c r="AD56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -6553,7 +6567,7 @@
       <c r="R57">
         <v>3</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="4">
         <v>2</v>
       </c>
       <c r="T57">
@@ -6587,7 +6601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -6633,14 +6647,14 @@
       <c r="R58">
         <v>2</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="4">
         <v>2</v>
       </c>
       <c r="AD58">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -6732,7 +6746,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -6775,14 +6789,14 @@
       <c r="R60">
         <v>2</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="4">
         <v>2</v>
       </c>
       <c r="AD60">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -6878,11 +6892,12 @@
       <c r="E62">
         <v>0</v>
       </c>
+      <c r="S62"/>
       <c r="AD62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -6925,6 +6940,7 @@
       <c r="Q63">
         <v>2</v>
       </c>
+      <c r="S63"/>
       <c r="T63">
         <v>2</v>
       </c>
@@ -6947,7 +6963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -6996,7 +7012,7 @@
       <c r="R64">
         <v>2</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="4">
         <v>2</v>
       </c>
       <c r="T64">
@@ -7027,7 +7043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -7107,7 +7123,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -7187,7 +7203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -7224,14 +7240,14 @@
       <c r="R67">
         <v>2</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="4">
         <v>2</v>
       </c>
       <c r="AD67">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -7277,14 +7293,14 @@
       <c r="R68">
         <v>2</v>
       </c>
-      <c r="S68">
+      <c r="S68" s="4">
         <v>2</v>
       </c>
       <c r="AD68">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -7324,14 +7340,14 @@
       <c r="R69">
         <v>2</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="4">
         <v>2</v>
       </c>
       <c r="AD69">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -7377,6 +7393,7 @@
       <c r="Q70">
         <v>2</v>
       </c>
+      <c r="S70"/>
       <c r="X70">
         <v>2</v>
       </c>
@@ -7397,11 +7414,12 @@
       <c r="D71" t="s">
         <v>145</v>
       </c>
+      <c r="S71"/>
       <c r="AD71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -7450,14 +7468,14 @@
       <c r="R72">
         <v>2</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="4">
         <v>2</v>
       </c>
       <c r="AD72">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -7491,14 +7509,14 @@
       <c r="Q73">
         <v>2</v>
       </c>
-      <c r="S73">
+      <c r="S73" s="4">
         <v>2</v>
       </c>
       <c r="AD73">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -7553,7 +7571,7 @@
       <c r="R74">
         <v>5</v>
       </c>
-      <c r="S74">
+      <c r="S74" s="4">
         <v>5</v>
       </c>
       <c r="T74">
@@ -7578,7 +7596,7 @@
         <v>128.12217391304347</v>
       </c>
     </row>
-    <row r="75" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -7630,7 +7648,7 @@
       <c r="R75">
         <v>2</v>
       </c>
-      <c r="S75">
+      <c r="S75" s="4">
         <v>2</v>
       </c>
       <c r="T75">
@@ -7664,7 +7682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -7719,7 +7737,7 @@
       <c r="R76">
         <v>10</v>
       </c>
-      <c r="S76">
+      <c r="S76" s="4">
         <v>10</v>
       </c>
       <c r="T76">
@@ -7756,7 +7774,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -7839,7 +7857,7 @@
         <v>52.607750000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -7888,14 +7906,14 @@
       <c r="R78">
         <v>2</v>
       </c>
-      <c r="S78">
+      <c r="S78" s="4">
         <v>2</v>
       </c>
       <c r="AD78">
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -7932,7 +7950,7 @@
       <c r="R79">
         <v>2</v>
       </c>
-      <c r="S79">
+      <c r="S79" s="4">
         <v>2</v>
       </c>
       <c r="T79">
@@ -7954,7 +7972,7 @@
         <v>53.59921739130435</v>
       </c>
     </row>
-    <row r="80" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -7974,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -7993,11 +8011,11 @@
       <c r="N81">
         <v>2</v>
       </c>
-      <c r="S81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S81" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -8025,11 +8043,11 @@
       <c r="R82">
         <v>2</v>
       </c>
-      <c r="S82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S82" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -8088,7 +8106,7 @@
         <v>26.105416666666667</v>
       </c>
     </row>
-    <row r="84" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -8126,7 +8144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -8182,7 +8200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -8228,6 +8246,7 @@
       <c r="R86">
         <v>2</v>
       </c>
+      <c r="S86"/>
       <c r="V86">
         <v>2</v>
       </c>
@@ -8238,7 +8257,7 @@
         <v>41.791666666666664</v>
       </c>
     </row>
-    <row r="87" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -8294,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -8371,7 +8390,7 @@
         <v>56.140958333333337</v>
       </c>
     </row>
-    <row r="89" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -8406,7 +8425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -8444,7 +8463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -8482,7 +8501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -8508,7 +8527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -8540,7 +8559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -8560,7 +8579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -8592,7 +8611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -8684,7 +8703,7 @@
         <v>91.18854166666668</v>
       </c>
     </row>
-    <row r="97" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -8725,7 +8744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -8757,7 +8776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -8846,7 +8865,7 @@
         <v>61.698541666666671</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -8920,7 +8939,7 @@
         <v>44.217916666666667</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -8948,11 +8967,12 @@
       <c r="R101">
         <v>2</v>
       </c>
+      <c r="S101"/>
       <c r="AD101">
         <v>8.2202083333333356</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -8977,6 +8997,7 @@
       <c r="O102">
         <v>2</v>
       </c>
+      <c r="S102"/>
       <c r="Y102">
         <v>2</v>
       </c>
@@ -8997,8 +9018,9 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S103"/>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -9053,7 +9075,7 @@
       <c r="R104">
         <v>10</v>
       </c>
-      <c r="S104">
+      <c r="S104" s="4">
         <v>10</v>
       </c>
       <c r="T104">
@@ -9087,7 +9109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -9115,6 +9137,7 @@
       <c r="O105">
         <v>2</v>
       </c>
+      <c r="S105"/>
       <c r="Y105">
         <v>2</v>
       </c>
@@ -9122,7 +9145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -9205,7 +9228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -9231,7 +9254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -9302,7 +9325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -9331,7 +9354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -9363,7 +9386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -9383,7 +9406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -9409,7 +9432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -9432,7 +9455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -9487,11 +9510,11 @@
       <c r="R114">
         <v>5</v>
       </c>
-      <c r="S114">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S114" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -9514,7 +9537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -9531,7 +9554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -9548,7 +9571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -9597,6 +9620,7 @@
       <c r="R118">
         <v>2</v>
       </c>
+      <c r="S118"/>
       <c r="T118">
         <v>2</v>
       </c>
@@ -9613,7 +9637,7 @@
         <v>37.008333333333333</v>
       </c>
     </row>
-    <row r="119" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -9630,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -9710,7 +9734,7 @@
         <v>47.850208333333335</v>
       </c>
     </row>
-    <row r="121" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -9727,7 +9751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -9744,7 +9768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -9761,7 +9785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -9778,7 +9802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -9795,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -9811,8 +9835,9 @@
       <c r="E126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S126"/>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -9829,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -9859,8 +9884,9 @@
       <c r="E129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S129"/>
+    </row>
+    <row r="130" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -9876,8 +9902,9 @@
       <c r="E130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S130"/>
+    </row>
+    <row r="131" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -9893,11 +9920,12 @@
       <c r="E131">
         <v>3</v>
       </c>
+      <c r="S131"/>
       <c r="AD131">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -9913,8 +9941,9 @@
       <c r="E132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="S132"/>
+    </row>
+    <row r="133" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -10006,7 +10035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -10023,7 +10052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -10040,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -10057,7 +10086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2</v>
       </c>
@@ -10074,7 +10103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -10091,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -10111,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -10131,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -10147,6 +10176,7 @@
       <c r="E141">
         <v>0</v>
       </c>
+      <c r="S141"/>
       <c r="AD141">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -10155,7 +10185,9 @@
   <autoFilter ref="A2:AD141">
     <filterColumn colId="0">
       <filters>
-        <filter val="Fresh veg"/>
+        <filter val="Long Fresh veg"/>
+        <filter val="Long Fruits"/>
+        <filter val="Soft Fruits"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10170,7 +10202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A59" sqref="A3:Z59"/>
     </sheetView>
   </sheetViews>

--- a/Ordering System/Ekbana.xlsx
+++ b/Ordering System/Ekbana.xlsx
@@ -1505,7 +1505,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -1977,11 +1977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="C142" sqref="C1:C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,7 +2205,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2390,7 +2389,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3306,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -4182,7 +4181,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -5018,7 +5017,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -5288,7 +5287,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -5924,7 +5923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -5969,7 +5968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -6230,7 +6229,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -6405,7 +6404,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>339</v>
       </c>
@@ -6654,7 +6653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -6879,7 +6878,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>299</v>
       </c>
@@ -6897,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -7043,7 +7042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -7123,7 +7122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -7347,7 +7346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -7404,7 +7403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>338</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -8047,7 +8046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -8313,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -8611,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -8776,7 +8775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -8865,7 +8864,7 @@
         <v>61.698541666666671</v>
       </c>
     </row>
-    <row r="100" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>44.217916666666667</v>
       </c>
     </row>
-    <row r="101" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -8972,7 +8971,7 @@
         <v>8.2202083333333356</v>
       </c>
     </row>
-    <row r="102" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -9005,7 +9004,7 @@
         <v>8.2526666666666664</v>
       </c>
     </row>
-    <row r="103" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>281</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -9145,7 +9144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -9571,7 +9570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -9819,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -9871,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>297</v>
       </c>
@@ -9886,7 +9885,7 @@
       </c>
       <c r="S129"/>
     </row>
-    <row r="130" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -9904,7 +9903,7 @@
       </c>
       <c r="S130"/>
     </row>
-    <row r="131" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -9925,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -9943,7 +9942,7 @@
       </c>
       <c r="S132"/>
     </row>
-    <row r="133" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -10160,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -10182,15 +10181,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AD141">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Long Fresh veg"/>
-        <filter val="Long Fruits"/>
-        <filter val="Soft Fruits"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AD141"/>
   <mergeCells count="1">
     <mergeCell ref="F1:AC1"/>
   </mergeCells>
